--- a/data/hotels_by_city/Dallas/Dallas_shard_469.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_469.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Juan S</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>biggirl66438</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r507239438-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>589larrys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r469886658-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>I got the last room, it was dirty, the screens on the window was damaged, the towels if you called them that were threadbare, and the room stank terribly.I was told to park in the handicap spot because there was no parking left in their parking lot... only to wake up the next morning to find a ticket... along with another man who was told to park there also.the management ignored our request, refused to accept that what we were told ... was fact.. and the cost of the ticket ... $520.oh... and to add to that tried to call the Wyndham offices to file a complaint on the hotel, only to be told that this was a mistake on my part and I should know not to park in a handicap spot and no way I should be asking for them to resolve this.I normally have had great times at Wyndham hotels... in fact I stayed at the Baymont Inn in Sea Brook, Texas for a week.. and it was fine.. but that will be the last time I stay at any Wyndham hotel no matter what they do until they decide to pay for their mistake.Again, this aside, the room I stayed in was dirty, stinky, and if I was not so tired, I would have left.More</t>
   </si>
   <si>
+    <t>NoOneEweNo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r378787620-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>I wish I had taken pictures. It was beyond belief how bad the room was. We checked out 5 minutes after we checked in because we didn't want to get sick breathing in the mold. The bathroom was covered in mildew, the cabinets hanging off their hinges, the tile cracked and grout missing. My wife suggested spraying her pants with disinfectant spray after sitting on the edge of the bed for a moment. I can't believe this place hasn't been comdemned entirely. There must be black mold growing somewhere because the air in the rooms was unbreathable. The people that run this place are rude as well and refused to refund our money.  We had only made our reservation and payment a couple of hours before we arrived.More</t>
   </si>
   <si>
+    <t>thunderguppy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r331050699-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>The good: Tried hard to find something nice to say but I can't come up with anything.The bad: Noisy due to thin walls, lots of broken stuff (bathroom fixtures, lights, furniture, etc...), Wi-Fi keeps kicking off, only two choices for shower water temp= cold or colder.The really bad: After coming back from a trip, opened door to room and was overwhelmed by noxious odor. The floor was about an inch deep in what looked like (and smelt!) sewage water.  It was literary raining sewage in the bathroom.Went to front desk to change rooms. It went something like this:Me: Ma'am, I'm in room XXX, my room is flooded with what looks like sewage.Front desk: But maintenance, he fix!Me: It's about an inch deep....Front desk: Maintenance, he fixed. It good now.(This goes on for a few minutes.)Luckily, maintenance guy gets me another room.Unfortunately, I had to trash a lot of stuff because I afraid I'd catch some weird disease.The best thing for this motel is if it burnt to the ground.More</t>
   </si>
   <si>
+    <t>johnbelb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r315057998-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>trond k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r289789609-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>do not stay her. it is nasty dirty and bugs in the room. we had cockroaches and left after 3 days. the rooms have tagging on the door that say stuff like do not have sex here bed bugs. it is the worst hotel i have ever been in. spend the extra cash and get a nice hotel. not worth getting sick to stay cheap. when we told them about the bugs they just said we have spray for that. the house clean dose not do a good job,they do not wash at all alomost. we were in the room and got to see how lazy they are. not a nice hotel at all. there is no way i will ever go back there.More</t>
   </si>
   <si>
+    <t>Judy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r226125031-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Lisa P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r217303047-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -328,6 +355,9 @@
   </si>
   <si>
     <t>July 2014</t>
+  </si>
+  <si>
+    <t>Angela G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r162162625-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
@@ -853,43 +883,47 @@
       <c r="A2" t="n">
         <v>10032</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -903,50 +937,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10032</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>162750</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -966,50 +1004,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10032</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>162751</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1027,50 +1069,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10032</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>162752</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1084,50 +1130,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10032</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>162753</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1147,50 +1197,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10032</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>162754</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1210,50 +1264,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10032</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>162755</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1271,35 +1329,39 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10032</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1307,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1331,36 +1393,37 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10032</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>7236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1368,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1392,51 +1455,52 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10032</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>4788</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1460,7 +1524,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_469.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_469.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Juan S</t>
-  </si>
-  <si>
-    <t>06/14/2018</t>
+    <t>08/24/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r513366113-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
@@ -180,9 +177,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>biggirl66438</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r507239438-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>589larrys</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r469886658-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>I got the last room, it was dirty, the screens on the window was damaged, the towels if you called them that were threadbare, and the room stank terribly.I was told to park in the handicap spot because there was no parking left in their parking lot... only to wake up the next morning to find a ticket... along with another man who was told to park there also.the management ignored our request, refused to accept that what we were told ... was fact.. and the cost of the ticket ... $520.oh... and to add to that tried to call the Wyndham offices to file a complaint on the hotel, only to be told that this was a mistake on my part and I should know not to park in a handicap spot and no way I should be asking for them to resolve this.I normally have had great times at Wyndham hotels... in fact I stayed at the Baymont Inn in Sea Brook, Texas for a week.. and it was fine.. but that will be the last time I stay at any Wyndham hotel no matter what they do until they decide to pay for their mistake.Again, this aside, the room I stayed in was dirty, stinky, and if I was not so tired, I would have left.More</t>
   </si>
   <si>
-    <t>NoOneEweNo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r378787620-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -258,9 +246,6 @@
     <t>I wish I had taken pictures. It was beyond belief how bad the room was. We checked out 5 minutes after we checked in because we didn't want to get sick breathing in the mold. The bathroom was covered in mildew, the cabinets hanging off their hinges, the tile cracked and grout missing. My wife suggested spraying her pants with disinfectant spray after sitting on the edge of the bed for a moment. I can't believe this place hasn't been comdemned entirely. There must be black mold growing somewhere because the air in the rooms was unbreathable. The people that run this place are rude as well and refused to refund our money.  We had only made our reservation and payment a couple of hours before we arrived.More</t>
   </si>
   <si>
-    <t>thunderguppy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r331050699-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -282,9 +267,6 @@
     <t>The good: Tried hard to find something nice to say but I can't come up with anything.The bad: Noisy due to thin walls, lots of broken stuff (bathroom fixtures, lights, furniture, etc...), Wi-Fi keeps kicking off, only two choices for shower water temp= cold or colder.The really bad: After coming back from a trip, opened door to room and was overwhelmed by noxious odor. The floor was about an inch deep in what looked like (and smelt!) sewage water.  It was literary raining sewage in the bathroom.Went to front desk to change rooms. It went something like this:Me: Ma'am, I'm in room XXX, my room is flooded with what looks like sewage.Front desk: But maintenance, he fix!Me: It's about an inch deep....Front desk: Maintenance, he fixed. It good now.(This goes on for a few minutes.)Luckily, maintenance guy gets me another room.Unfortunately, I had to trash a lot of stuff because I afraid I'd catch some weird disease.The best thing for this motel is if it burnt to the ground.More</t>
   </si>
   <si>
-    <t>johnbelb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r315057998-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -303,9 +285,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>trond k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r289789609-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -327,9 +306,6 @@
     <t>do not stay her. it is nasty dirty and bugs in the room. we had cockroaches and left after 3 days. the rooms have tagging on the door that say stuff like do not have sex here bed bugs. it is the worst hotel i have ever been in. spend the extra cash and get a nice hotel. not worth getting sick to stay cheap. when we told them about the bugs they just said we have spray for that. the house clean dose not do a good job,they do not wash at all alomost. we were in the room and got to see how lazy they are. not a nice hotel at all. there is no way i will ever go back there.More</t>
   </si>
   <si>
-    <t>Judy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r226125031-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -342,9 +318,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Lisa P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r217303047-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -355,9 +328,6 @@
   </si>
   <si>
     <t>July 2014</t>
-  </si>
-  <si>
-    <t>Angela G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d254242-r162162625-Knights_Inn_Fort_Worth_TX-Fort_Worth_Texas.html</t>
@@ -883,47 +853,43 @@
       <c r="A2" t="n">
         <v>10032</v>
       </c>
-      <c r="B2" t="n">
-        <v>118065</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -937,54 +903,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10032</v>
       </c>
-      <c r="B3" t="n">
-        <v>162750</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1004,54 +966,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10032</v>
       </c>
-      <c r="B4" t="n">
-        <v>162751</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1069,54 +1027,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10032</v>
       </c>
-      <c r="B5" t="n">
-        <v>162752</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1130,54 +1084,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10032</v>
       </c>
-      <c r="B6" t="n">
-        <v>162753</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1197,54 +1147,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10032</v>
       </c>
-      <c r="B7" t="n">
-        <v>162754</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1264,54 +1210,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10032</v>
       </c>
-      <c r="B8" t="n">
-        <v>162755</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1329,39 +1271,35 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10032</v>
       </c>
-      <c r="B9" t="n">
-        <v>2800</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1369,10 +1307,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1393,37 +1331,36 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10032</v>
       </c>
-      <c r="B10" t="n">
-        <v>7236</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1431,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1455,52 +1392,51 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10032</v>
       </c>
-      <c r="B11" t="n">
-        <v>4788</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1524,7 +1460,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
